--- a/tests/mock_data.xlsx
+++ b/tests/mock_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\kalule\Todo_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\kalule\Todo_app\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917AF9F-640D-408A-8EC4-43D4209B159D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AA3C74-4DE8-41A1-BD84-4B642049CDDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{DA6B37DB-0FAC-43E6-85FE-DBEC7A373362}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{DA6B37DB-0FAC-43E6-85FE-DBEC7A373362}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>uid</t>
   </si>
 </sst>
 </file>
@@ -939,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97229D2-1596-428B-8CC0-D15AD5EDE26F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -974,8 +977,11 @@
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -994,8 +1000,11 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1014,8 +1023,11 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1034,8 +1046,11 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -1054,8 +1069,11 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1074,8 +1092,11 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1094,8 +1115,11 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1114,8 +1138,11 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1134,8 +1161,11 @@
       <c r="F9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -1154,8 +1184,11 @@
       <c r="F10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -1174,8 +1207,11 @@
       <c r="F11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1194,8 +1230,11 @@
       <c r="F12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1214,8 +1253,11 @@
       <c r="F13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1234,8 +1276,11 @@
       <c r="F14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1254,8 +1299,11 @@
       <c r="F15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1273,6 +1321,9 @@
       </c>
       <c r="F16" t="s">
         <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
